--- a/biology/Botanique/Carex_montana/Carex_montana.xlsx
+++ b/biology/Botanique/Carex_montana/Carex_montana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex montana, la Laîche des montagnes, est une espèce de plantes du genre Carex et de la famille des Cyperaceae. La photo de presentation n'est pas celle d'un carex montana qui pousse dans les prairies et ne fait pas de touradons. 
 </t>
